--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value184.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value184.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.125380560209722</v>
+        <v>7.050186157226562</v>
       </c>
       <c r="B1">
-        <v>1.435843512506566</v>
+        <v>5.941616058349609</v>
       </c>
       <c r="C1">
-        <v>2.127483340027789</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.55362612254069</v>
+        <v>3.244271755218506</v>
       </c>
       <c r="E1">
-        <v>1.048808256562854</v>
+        <v>1.910949468612671</v>
       </c>
     </row>
   </sheetData>
